--- a/biology/Zoologie/Faucon_concolore/Faucon_concolore.xlsx
+++ b/biology/Zoologie/Faucon_concolore/Faucon_concolore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Falco concolor
 Le Faucon concolore (Falco concolor) est une espèce de rapaces diurnes appartenant à la famille des Falconidae.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme concolore signifie d'une couleur uniforme.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Faucon concolore est un faucon de taille moyenne (environ 34 cm de long pour une envergure de 84 cm). Son plumage est entièrement gris sombre ou gris perle avec le dos strié de noir.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans le nord-est de l'Afrique, au Pakistan et au Moyen-Orient ; il hiverne au Mozambique et à Madagascar.
 </t>
